--- a/Metrics/Cache/Metrics_1.xlsx
+++ b/Metrics/Cache/Metrics_1.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -517,11 +517,284 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>26.43</v>
+        <v>20.45</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Fri Jun  7 06:58:33 2024</t>
+          <t>Fri Jun  7 09:33:52 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>700</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>120</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>WESAD</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Fri Jun  7 09:33:52 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>700</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>120</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>WESAD</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Fri Jun  7 09:33:52 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>700</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>120</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>WESAD</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Fri Jun  7 09:33:52 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>700</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>120</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>WESAD</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Fri Jun  7 09:33:52 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>700</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>120</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>WESAD</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Fri Jun  7 09:33:52 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>700</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>120</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>WESAD</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Fri Jun  7 09:33:52 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>700</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>120</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>WESAD</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Fri Jun  7 09:33:52 2024</t>
         </is>
       </c>
     </row>
@@ -536,7 +809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,16 +888,6 @@
           <t>Dataset used</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Total execution time (s)</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Current time</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -636,10 +899,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7622878309428647</v>
+        <v>0.8288888888888888</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8479583199081251</v>
+        <v>0.8765700483091787</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -675,19 +938,11 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
           <t>WESAD</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>26.43</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Fri Jun  7 06:58:33 2024</t>
         </is>
       </c>
     </row>
@@ -701,10 +956,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7281766831519376</v>
+        <v>0.7211111111111111</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8560451245573191</v>
+        <v>0.8762077294685989</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -728,19 +983,11 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
           <t>WESAD</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>26.43</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Fri Jun  7 06:58:33 2024</t>
         </is>
       </c>
     </row>
@@ -754,10 +1001,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7191003513707738</v>
+        <v>0.8255555555555555</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8257882627896933</v>
+        <v>0.8568840579710145</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -793,19 +1040,11 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
           <t>WESAD</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>26.43</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Fri Jun  7 06:58:33 2024</t>
         </is>
       </c>
     </row>
@@ -819,10 +1058,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6987903278587878</v>
+        <v>0.6674074074074074</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8384403469914987</v>
+        <v>0.7894927536231884</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -858,19 +1097,11 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
           <t>WESAD</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>26.43</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Fri Jun  7 06:58:33 2024</t>
         </is>
       </c>
     </row>
@@ -884,10 +1115,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7701257095353038</v>
+        <v>0.8188888888888889</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8559818259424717</v>
+        <v>0.8967391304347826</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -911,19 +1142,11 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
           <t>WESAD</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>26.43</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Fri Jun  7 06:58:33 2024</t>
         </is>
       </c>
     </row>
@@ -937,10 +1160,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7295032217580477</v>
+        <v>0.7796296296296296</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8573759178609208</v>
+        <v>0.8822463768115941</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -976,19 +1199,11 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
           <t>WESAD</t>
-        </is>
-      </c>
-      <c r="P7" t="n">
-        <v>26.43</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Fri Jun  7 06:58:33 2024</t>
         </is>
       </c>
     </row>
@@ -1002,10 +1217,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.7584780055737149</v>
+        <v>0.7485185185185184</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7523039859202464</v>
+        <v>0.7439613526570048</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1041,19 +1256,11 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
           <t>WESAD</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>26.43</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Fri Jun  7 06:58:33 2024</t>
         </is>
       </c>
     </row>
@@ -1067,10 +1274,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.7380660185987757</v>
+        <v>0.7699999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8334133977100393</v>
+        <v>0.8460144927536231</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -1094,19 +1301,11 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
           <t>WESAD</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v>26.43</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Fri Jun  7 06:58:33 2024</t>
         </is>
       </c>
     </row>
